--- a/Docs/STM32/pinmap.xlsx
+++ b/Docs/STM32/pinmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\WordStorm\STM32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\WordStorm-Hardware\Docs\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19049DE-1BB1-4E56-9DE8-BECFD6E76A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA89DE0-2869-4B13-A43F-4749082E7B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16050" yWindow="600" windowWidth="12750" windowHeight="15600" xr2:uid="{C453D219-4022-435F-9510-2E4530CB077A}"/>
+    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{C453D219-4022-435F-9510-2E4530CB077A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>PE2</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>SDMMC2_D3</t>
+  </si>
+  <si>
+    <t>BootLoader Use</t>
+  </si>
+  <si>
+    <t>Free High-Z</t>
+  </si>
+  <si>
+    <t>Power</t>
   </si>
 </sst>
 </file>
@@ -810,86 +819,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0A221B-FE40-4139-B905-3C1D5CAE4B2D}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -897,7 +916,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -905,19 +924,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/Docs/STM32/pinmap.xlsx
+++ b/Docs/STM32/pinmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\WordStorm-Hardware\Docs\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA89DE0-2869-4B13-A43F-4749082E7B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2860F36-E751-4AD5-8ACF-258929601C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1485" windowWidth="21600" windowHeight="13065" xr2:uid="{C453D219-4022-435F-9510-2E4530CB077A}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="12750" windowHeight="15600" xr2:uid="{C453D219-4022-435F-9510-2E4530CB077A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
   <si>
     <t>PE2</t>
   </si>
@@ -420,6 +420,75 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>STB1</t>
+  </si>
+  <si>
+    <t>STB2</t>
+  </si>
+  <si>
+    <t>STB3</t>
+  </si>
+  <si>
+    <t>STB4</t>
+  </si>
+  <si>
+    <t>STB5</t>
+  </si>
+  <si>
+    <t>STB6</t>
+  </si>
+  <si>
+    <t>!OE</t>
+  </si>
+  <si>
+    <t>nSLEEP</t>
+  </si>
+  <si>
+    <t>USBEN</t>
+  </si>
+  <si>
+    <t>SDDET</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>LEDEN</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>PAPER</t>
+  </si>
+  <si>
+    <t>MTO</t>
+  </si>
+  <si>
+    <t>HTO</t>
+  </si>
+  <si>
+    <t>HUP</t>
+  </si>
+  <si>
+    <t>BUZZ</t>
   </si>
 </sst>
 </file>
@@ -821,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0A221B-FE40-4139-B905-3C1D5CAE4B2D}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +915,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>126</v>
       </c>
@@ -855,7 +926,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
@@ -870,7 +943,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -882,19 +957,25 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1000,7 +1081,9 @@
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1034,7 +1117,9 @@
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1054,19 +1139,25 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1118,13 +1209,17 @@
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1174,7 +1269,9 @@
       <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1356,25 +1453,33 @@
       <c r="A77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -1464,7 +1569,9 @@
       <c r="A93" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -1476,25 +1583,33 @@
       <c r="A95" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
